--- a/data/trans_bre/P4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P4_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,46</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>-5,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>20,16</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>8,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,45%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>-4,19%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-13,88%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>108,46%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,65; 18,28</t>
+          <t>-32,07; 24,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,24; 23,13</t>
+          <t>-37,36; 25,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,56; 21,03</t>
+          <t>-38,34; 23,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 19,36</t>
+          <t>-44,41; 22,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-44,16; 94,89</t>
+          <t>-4,87; 46,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,43; 143,46</t>
+          <t>-66,64; 160,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-44,94; 132,58</t>
+          <t>-69,54; 167,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-47,67; 112,19</t>
+          <t>-69,86; 154,02</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-74,43; 142,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-18,71; 609,94</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>-4,58%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>-10,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,62%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 8,09</t>
+          <t>-15,24; 7,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 9,02</t>
+          <t>-18,05; 7,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 11,76</t>
+          <t>-12,53; 9,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 9,17</t>
+          <t>-15,25; 9,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,35; 44,0</t>
+          <t>-8,52; 11,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-29,4; 48,0</t>
+          <t>-50,03; 53,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 63,88</t>
+          <t>-56,1; 50,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,74; 52,31</t>
+          <t>-44,49; 66,0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-50,44; 63,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-31,69; 72,51</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,87</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>-9,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>-4,57%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,06%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-7,74%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 12,85</t>
+          <t>-12,64; 8,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 12,57</t>
+          <t>-10,88; 11,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 11,67</t>
+          <t>-13,16; 9,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 10,51</t>
+          <t>-11,75; 9,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,59; 92,45</t>
+          <t>-12,77; 8,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 89,11</t>
+          <t>-41,79; 48,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 78,98</t>
+          <t>-37,37; 68,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 66,37</t>
+          <t>-41,24; 54,07</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-38,35; 52,51</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-44,42; 54,63</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 7,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 8,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 9,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 8,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 41,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 46,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 48,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 44,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,19</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,32</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,91</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-5,11%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,51%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,7%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-3,62%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>16,03%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; 5,63</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-12,05; 6,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-10,39; 6,91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-13,23; 6,65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 10,98</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-37,89; 31,48</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-37,42; 36,9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-34,82; 37,25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-39,63; 33,86</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-17,16; 62,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P4_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,47</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-5,39</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>20,16</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>8,79%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,07%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-4,19%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-13,88%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>108,46%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.756680678672069</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.174631372054495</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.739375412773758</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-3.9124119455689</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>18.26833758444348</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.0879208012517592</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.2035336373146259</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.05487590218241348</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.106327450731788</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.9717732700722108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-32,07; 24,76</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-37,36; 25,01</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-38,34; 23,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-44,41; 22,29</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,87; 46,85</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-66,64; 160,83</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-69,54; 167,73</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-69,86; 154,02</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-74,43; 142,7</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-18,71; 609,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-32.06849921435605</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-29.60729353945831</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-33.23773906900729</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-42.27106327398501</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-6.409712966229122</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6663527667771393</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6336280945474035</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6693153813911397</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.7348402178408324</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.2210369502381331</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>24.75722072162937</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>29.00188444202976</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>24.81023881215974</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.94245962167621</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>44.86094154049416</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.608319402475564</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.106223547171179</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.705172944347201</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.506687541361288</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>6.000102168494763</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-4,58%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-10,32%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4,55%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,32%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>8,62%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,24; 7,9</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-18,05; 7,43</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,53; 9,58</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-15,25; 9,34</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,52; 11,93</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-50,03; 53,74</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-56,1; 50,57</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-44,49; 66,0</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-50,44; 63,32</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-31,69; 72,51</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.9441696886176659</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.669132796799689</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.002945470606706</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.178203012362238</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.140394845553542</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.04575530463786379</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1193212414404541</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.05078686799006711</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.008515022915556655</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.09952416991853977</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,22</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,13</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,02</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-9,3%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,33%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-4,57%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,06%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-7,74%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.23644045217564</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-17.39546783168006</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-11.50998830940712</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-13.89692577925508</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-9.05210954629044</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5002813770260314</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5503507493782599</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4406041043894737</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.4902791001799015</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3105778657359697</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,64; 8,56</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,88; 11,54</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-13,16; 9,53</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-11,75; 9,5</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 8,41</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-41,79; 48,94</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-37,37; 68,03</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-41,24; 54,07</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-38,35; 52,51</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-44,42; 54,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.902868628480447</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.193195044082509</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.807036314509226</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>9.603870768658705</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>12.0580311084669</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.5374117727164366</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.4847878489236513</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.6635933095532489</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.6334261652942351</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.7466519458067432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-2.218965576753753</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.651590150737369</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-1.462837568110947</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.3758412093807895</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-2.854788391896002</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.09303336690376238</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1420962547484265</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.05939890223188708</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.01533098222993595</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.12390306464236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-12.64064059767868</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.45234441040369</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-13.45638532436944</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-12.23615399162619</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-13.98652884400137</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4179257878754111</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.4899884273354476</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.4256751471590222</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.3940412719270672</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4728638356634807</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.556958959985037</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.109207244179442</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.351159610403856</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.570271330751313</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>7.547188345199707</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.4893884933561438</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.5024709430473075</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.5269468726055084</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.5261860190539018</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.480096758955831</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,19</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,41</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,91</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,38</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-5,11%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-5,51%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-1,7%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-3,62%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>16,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-11,21; 5,63</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-12,05; 6,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,39; 6,91</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-13,23; 6,65</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-4,01; 10,98</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-37,89; 31,48</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-37,42; 36,9</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-34,82; 37,25</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-39,63; 33,86</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-17,16; 62,15</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-1.19497741239136</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.2472734288463</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.05498642576898527</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.6275955945809458</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>2.835205044633343</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.0511299742351757</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.09058187319433567</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.002371986344199526</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.02566894298599037</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.131280292988887</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-11.20641065743447</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.23550761589746</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-9.358975682372815</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-11.8948635873613</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-4.653611914420335</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.3789228208501879</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3861431833886799</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3279677913571106</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3712257280230065</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.19294885252305</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.632779930978719</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.156327559084092</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.167170647776766</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.84505081400281</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10.43263527208223</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3148246188177294</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3266971488586132</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3929926057272205</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.3624142819795251</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5951057995404153</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
